--- a/Docs/TablasDatos RETO 2.xlsx
+++ b/Docs/TablasDatos RETO 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ab2ccdba9b12add/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ab2ccdba9b12add/Documentos/1 UNIANDES/3 semestre/EDA lab/Reto2-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C5FA11-BCC4-438E-A629-E55FC7388BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{26C5FA11-BCC4-438E-A629-E55FC7388BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF78E4F-C6A5-4456-900B-DFA4DFA36023}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Tiempos" sheetId="1" r:id="rId1"/>
@@ -797,38 +797,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2636,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2976,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DAFEFB-7020-4321-9B93-14558F67316D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="86" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3097,6 +3067,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6ca5caf3e573104b48cd489fb7ebf238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8ff97dc266d6a6a16fe4e7cad907b60" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -3313,15 +3292,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
@@ -3340,6 +3310,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3356,12 +3334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>